--- a/Final Requirements & Solutions.xlsx
+++ b/Final Requirements & Solutions.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crtificate Courses\Business Analytics with Excel Certificate (Johns Hopkins Uni)\FinalCourse-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Case Studies\Bluejay Natural Gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CDF7CE-8DF7-485F-A44A-1E5A2C0C8F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8A1005-7925-4223-9467-293ABFB1A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario Part 1" sheetId="4" r:id="rId1"/>
-    <sheet name="Scenario Part 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Requirement Part 1" sheetId="4" r:id="rId1"/>
+    <sheet name="Requirement Part 2" sheetId="3" r:id="rId2"/>
     <sheet name="Solution by ChatGpt" sheetId="2" r:id="rId3"/>
     <sheet name="Solution-(2)" sheetId="7" r:id="rId4"/>
   </sheets>
@@ -729,16 +729,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -767,7 +767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219199" y="409575"/>
+          <a:off x="95249" y="76200"/>
           <a:ext cx="7734301" cy="2628899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -784,23 +784,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9214</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588829E8-1A94-4B68-8444-3BAF94C46112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1336471C-CEFD-4BEC-85CE-E465BB318930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -822,8 +822,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219199" y="190500"/>
-          <a:ext cx="7800975" cy="2485714"/>
+          <a:off x="0" y="1885950"/>
+          <a:ext cx="7839075" cy="2542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,23 +834,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47307</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1336471C-CEFD-4BEC-85CE-E465BB318930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EF75EE-42D5-4C90-8AC5-E7F6F035129F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,8 +872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="2647950"/>
-          <a:ext cx="7839075" cy="2542857"/>
+          <a:off x="47625" y="28575"/>
+          <a:ext cx="7772400" cy="1831590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC92BB9D-AD80-40BF-92AF-2B3B2A97670E}">
-  <dimension ref="O8:W27"/>
+  <dimension ref="L4:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,57 +1180,182 @@
     <col min="17" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O8" t="s">
+    <row r="4" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O9" t="s">
+    <row r="5" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
+    <row r="6" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O13" t="s">
+    <row r="9" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O15" s="32"/>
-      <c r="P15" s="32" t="s">
+    <row r="11" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L11" s="32"/>
+      <c r="M11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="N11" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="O11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="P11" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="T15" s="32" t="s">
+      <c r="Q11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="U15" s="32" t="s">
+      <c r="R11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="32" t="s">
+      <c r="S11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="32" t="s">
+      <c r="T11" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O16" s="28" t="s">
+    <row r="12" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L12" s="28" t="s">
         <v>58</v>
       </c>
+      <c r="M12" s="33">
+        <v>1</v>
+      </c>
+      <c r="N12" s="33">
+        <v>1</v>
+      </c>
+      <c r="O12" s="33">
+        <v>1</v>
+      </c>
+      <c r="P12" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>1</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0</v>
+      </c>
+      <c r="S12" s="33">
+        <v>0</v>
+      </c>
+      <c r="T12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1</v>
+      </c>
+      <c r="N13" s="33">
+        <v>1</v>
+      </c>
+      <c r="O13" s="33">
+        <v>1</v>
+      </c>
+      <c r="P13" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33">
+        <v>1</v>
+      </c>
+      <c r="S13" s="33">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="33">
+        <v>1</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="33">
+        <v>0</v>
+      </c>
+      <c r="P14" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>1</v>
+      </c>
+      <c r="R14" s="33">
+        <v>1</v>
+      </c>
+      <c r="S14" s="33">
+        <v>0</v>
+      </c>
+      <c r="T14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>1</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>1</v>
+      </c>
+      <c r="R15" s="33">
+        <v>1</v>
+      </c>
+      <c r="S15" s="33">
+        <v>1</v>
+      </c>
+      <c r="T15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="33">
+        <v>1</v>
+      </c>
+      <c r="N16" s="33">
+        <v>1</v>
+      </c>
+      <c r="O16" s="33">
+        <v>1</v>
+      </c>
       <c r="P16" s="33">
         <v>1</v>
       </c>
@@ -1244,21 +1369,21 @@
         <v>1</v>
       </c>
       <c r="T16" s="33">
-        <v>1</v>
-      </c>
-      <c r="U16" s="33">
-        <v>0</v>
-      </c>
-      <c r="V16" s="33">
-        <v>0</v>
-      </c>
-      <c r="W16" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O17" s="28" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="33">
+        <v>1</v>
+      </c>
+      <c r="N17" s="33">
+        <v>1</v>
+      </c>
+      <c r="O17" s="33">
+        <v>1</v>
       </c>
       <c r="P17" s="33">
         <v>1</v>
@@ -1273,114 +1398,114 @@
         <v>1</v>
       </c>
       <c r="T17" s="33">
-        <v>0</v>
-      </c>
-      <c r="U17" s="33">
-        <v>1</v>
-      </c>
-      <c r="V17" s="33">
-        <v>0</v>
-      </c>
-      <c r="W17" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O18" s="28" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="33">
+        <v>1</v>
+      </c>
+      <c r="N18" s="33">
+        <v>1</v>
+      </c>
+      <c r="O18" s="33">
+        <v>1</v>
       </c>
       <c r="P18" s="33">
         <v>1</v>
       </c>
       <c r="Q18" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="33">
         <v>1</v>
       </c>
-      <c r="U18" s="33">
-        <v>1</v>
-      </c>
-      <c r="V18" s="33">
-        <v>0</v>
-      </c>
-      <c r="W18" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O19" s="28" t="s">
-        <v>61</v>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="33">
+        <v>1</v>
+      </c>
+      <c r="N19" s="33">
+        <v>1</v>
+      </c>
+      <c r="O19" s="33">
+        <v>1</v>
       </c>
       <c r="P19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="33">
-        <v>1</v>
-      </c>
-      <c r="U19" s="33">
-        <v>1</v>
-      </c>
-      <c r="V19" s="33">
-        <v>1</v>
-      </c>
-      <c r="W19" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O20" s="28" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="33">
+        <v>1</v>
+      </c>
+      <c r="N20" s="33">
+        <v>1</v>
+      </c>
+      <c r="O20" s="33">
+        <v>1</v>
       </c>
       <c r="P20" s="33">
         <v>1</v>
       </c>
       <c r="Q20" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="33">
         <v>1</v>
       </c>
-      <c r="U20" s="33">
-        <v>1</v>
-      </c>
-      <c r="V20" s="33">
-        <v>1</v>
-      </c>
-      <c r="W20" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O21" s="28" t="s">
-        <v>63</v>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="33">
+        <v>1</v>
+      </c>
+      <c r="N21" s="33">
+        <v>1</v>
+      </c>
+      <c r="O21" s="33">
+        <v>1</v>
       </c>
       <c r="P21" s="33">
         <v>1</v>
       </c>
       <c r="Q21" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="33">
         <v>1</v>
@@ -1391,19 +1516,19 @@
       <c r="T21" s="33">
         <v>1</v>
       </c>
-      <c r="U21" s="33">
-        <v>1</v>
-      </c>
-      <c r="V21" s="33">
-        <v>1</v>
-      </c>
-      <c r="W21" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O22" s="28" t="s">
-        <v>64</v>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="33">
+        <v>1</v>
+      </c>
+      <c r="N22" s="33">
+        <v>1</v>
+      </c>
+      <c r="O22" s="33">
+        <v>1</v>
       </c>
       <c r="P22" s="33">
         <v>1</v>
@@ -1415,24 +1540,24 @@
         <v>1</v>
       </c>
       <c r="S22" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="33">
         <v>1</v>
       </c>
-      <c r="U22" s="33">
-        <v>1</v>
-      </c>
-      <c r="V22" s="33">
-        <v>0</v>
-      </c>
-      <c r="W22" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O23" s="28" t="s">
-        <v>65</v>
+    </row>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L23" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
+        <v>0</v>
       </c>
       <c r="P23" s="33">
         <v>1</v>
@@ -1441,137 +1566,12 @@
         <v>1</v>
       </c>
       <c r="R23" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="33">
         <v>1</v>
       </c>
       <c r="T23" s="33">
-        <v>0</v>
-      </c>
-      <c r="U23" s="33">
-        <v>1</v>
-      </c>
-      <c r="V23" s="33">
-        <v>1</v>
-      </c>
-      <c r="W23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="33">
-        <v>1</v>
-      </c>
-      <c r="R24" s="33">
-        <v>1</v>
-      </c>
-      <c r="S24" s="33">
-        <v>1</v>
-      </c>
-      <c r="T24" s="33">
-        <v>0</v>
-      </c>
-      <c r="U24" s="33">
-        <v>0</v>
-      </c>
-      <c r="V24" s="33">
-        <v>0</v>
-      </c>
-      <c r="W24" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O25" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="33">
-        <v>1</v>
-      </c>
-      <c r="R25" s="33">
-        <v>1</v>
-      </c>
-      <c r="S25" s="33">
-        <v>1</v>
-      </c>
-      <c r="T25" s="33">
-        <v>0</v>
-      </c>
-      <c r="U25" s="33">
-        <v>1</v>
-      </c>
-      <c r="V25" s="33">
-        <v>1</v>
-      </c>
-      <c r="W25" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O26" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="33">
-        <v>1</v>
-      </c>
-      <c r="R26" s="33">
-        <v>1</v>
-      </c>
-      <c r="S26" s="33">
-        <v>1</v>
-      </c>
-      <c r="T26" s="33">
-        <v>1</v>
-      </c>
-      <c r="U26" s="33">
-        <v>1</v>
-      </c>
-      <c r="V26" s="33">
-        <v>0</v>
-      </c>
-      <c r="W26" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="33">
-        <v>0</v>
-      </c>
-      <c r="R27" s="33">
-        <v>0</v>
-      </c>
-      <c r="S27" s="33">
-        <v>1</v>
-      </c>
-      <c r="T27" s="33">
-        <v>1</v>
-      </c>
-      <c r="U27" s="33">
-        <v>0</v>
-      </c>
-      <c r="V27" s="33">
-        <v>1</v>
-      </c>
-      <c r="W27" s="33">
         <v>1</v>
       </c>
     </row>
